--- a/biology/Zoologie/Eotragus_noyei/Eotragus_noyei.xlsx
+++ b/biology/Zoologie/Eotragus_noyei/Eotragus_noyei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eotragus noyei est une espèce éteinte de mammifères de la famille des Bovidae. Elle a été découverte au Pakistan dans des formations datant de 18 millions d'années[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eotragus noyei est une espèce éteinte de mammifères de la famille des Bovidae. Elle a été découverte au Pakistan dans des formations datant de 18 millions d'années.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Eotragus noyei a été décrite en 1995 par les paléontologues Nikos Solounias (d), John C. Barry (d), Raymond L. Bernor (d), Everett H. Lindsay (d) et S. Mahmood Raza (d)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Eotragus noyei a été décrite en 1995 par les paléontologues Nikos Solounias (d), John C. Barry (d), Raymond L. Bernor (d), Everett H. Lindsay (d) et S. Mahmood Raza (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, noyei, lui a été donnée en l'honneur de Noye Munroe Johnson (d) (1930-1987) qui a contribué à des expéditions géologiques et paléontologiques au Pakistan[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, noyei, lui a été donnée en l'honneur de Noye Munroe Johnson (d) (1930-1987) qui a contribué à des expéditions géologiques et paléontologiques au Pakistan.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Nikos Solounias, John C. Barry, Raymond L. Bernor, E. H. Lindsay et S. Mahmood Raza, « The oldest bovid from the Siwaliks, Pakistan », Journal of Vertebrate Paleontology, SVP et Taylor &amp; Francis, vol. 15, no 4,‎ 27 décembre 1995, p. 806-814 (ISSN 0272-4634 et 1937-2809, OCLC 238100068, DOI 10.1080/02724634.1995.10011263, JSTOR 4523671)</t>
         </is>
